--- a/data/demo_data/football/map-football.xlsx
+++ b/data/demo_data/football/map-football.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\datomatisation\datomatisation-dev\data\demo_data\football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31156238-2E34-4FD7-858B-F35E6CF803F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B2BB7A-9A6E-468B-80B6-434F595C7069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43620" yWindow="2280" windowWidth="20160" windowHeight="15225" xr2:uid="{BEEE0838-8381-44BA-9592-E3BE3FB7B4F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BEEE0838-8381-44BA-9592-E3BE3FB7B4F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,13 +96,13 @@
     <t>final third receptions</t>
   </si>
   <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>adjusted</t>
-  </si>
-  <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>assits</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,7 +535,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -543,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -551,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
